--- a/for Hector/Tom/sf1Left-lookup.xlsx
+++ b/for Hector/Tom/sf1Left-lookup.xlsx
@@ -108,7 +108,7 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>END_PM</t>
+          <t>End PM</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -151,8 +151,10 @@
           <t>Beg PM:    2.100</t>
         </is>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>4.1</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>End PM:    4.100</t>
+        </is>
       </c>
       <c r="H2" s="1" t="n">
         <v>2.0</v>
@@ -192,8 +194,10 @@
           <t>Beg PM:    0.336</t>
         </is>
       </c>
-      <c r="G3" s="1" t="n">
-        <v>1.6</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>End PM:    1.600</t>
+        </is>
       </c>
       <c r="H3" s="1" t="n">
         <v>1.264</v>
@@ -233,8 +237,10 @@
           <t>Beg PM:    0.000</t>
         </is>
       </c>
-      <c r="G4" s="1" t="n">
-        <v>6.33</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>End PM:    6.330</t>
+        </is>
       </c>
       <c r="H4" s="1" t="n">
         <v>6.33</v>
@@ -274,8 +280,10 @@
           <t>Beg PM:    6.330</t>
         </is>
       </c>
-      <c r="G5" s="1" t="n">
-        <v>7.077</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>End PM:    7.077</t>
+        </is>
       </c>
       <c r="H5" s="1" t="n">
         <v>0.747</v>
@@ -302,10 +310,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>select a.ea, a.treatment, a.county, a.route, a.year, ('Beg PM: ' || to_char(a.beg_pm, 990.999)) as "Beg PM", a.end_pm, (a.end_pm-a.beg_pm) as length, a.budget_group from s1383currentl a 
+          <t>select a.ea, a.treatment, a.county, a.route, a.year, ('Beg PM: ' || to_char(a.beg_pm, 990.999)) as "Beg PM", ('End PM: ' || to_char(a.end_pm, 990.999)) as "End PM", (a.end_pm-a.beg_pm) as length, a.budget_group from s1383currentl a 
 where a.county = 'SF' 
 union  
-select b.ea, b.treatment, b.county, b.route, b.year, ('Beg PM: ' || to_char(b.beg_pm, 990.999)) as "Beg PM",  b.end_pm, (b.end_pm-b.beg_pm) as length, b.budget_group from s1383historyl b 
+select b.ea, b.treatment, b.county, b.route, b.year, ('Beg PM: ' || to_char(b.beg_pm, 990.999)) as "Beg PM",  ('End PM: ' || to_char(b.end_pm, 990.999)) as "End PM",  (b.end_pm-b.beg_pm) as length, b.budget_group from s1383historyl b 
 where b.county = 'SF' 
 order by year</t>
         </is>
